--- a/reports/returnAndExchangeList.xlsx
+++ b/reports/returnAndExchangeList.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10">
   <si>
     <t>No.</t>
   </si>
@@ -36,6 +36,15 @@
   </si>
   <si>
     <t>Date</t>
+  </si>
+  <si>
+    <t>Unknown Unknown</t>
+  </si>
+  <si>
+    <t>000001202</t>
+  </si>
+  <si>
+    <t>2024-04-26 16:03:47</t>
   </si>
 </sst>
 </file>
@@ -104,9 +113,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
@@ -408,21 +420,21 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1:G1"/>
+      <selection activeCell="A1" sqref="A1:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="6.856" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="17.567" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="20.995" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="18.71" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="12.854" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="18.71" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="17.567" bestFit="true" customWidth="true" style="0"/>
-    <col min="7" max="7" width="8.141" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="25.708" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -446,6 +458,29 @@
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="2">
+        <v>920</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="2">
+        <v>920.0</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
